--- a/Titulos cuchillos.xlsx
+++ b/Titulos cuchillos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Cursos NG\proyecto\Cuchillos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexis.figueira\Desktop\pollo\Proyectos\cuchillosJF\cuchillosJF\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -483,7 +483,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R5" sqref="R5"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3:B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Titulos cuchillos.xlsx
+++ b/Titulos cuchillos.xlsx
@@ -80,9 +80,6 @@
     <t>picasso galloneado fino</t>
   </si>
   <si>
-    <t>picasso liso fino vaina cuero crudo trenzada</t>
-  </si>
-  <si>
     <t>picaso liso costilla y vaina cuero crudo trenzado</t>
   </si>
   <si>
@@ -153,6 +150,9 @@
   </si>
   <si>
     <t xml:space="preserve">Informacion general y datos extras </t>
+  </si>
+  <si>
+    <t>picasso liso fino vaina cuero crudo trenzado</t>
   </si>
 </sst>
 </file>
@@ -176,12 +176,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -196,9 +202,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,27 +486,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P46"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3:B37"/>
+      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="2" max="2" width="47" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="6" bestFit="1" customWidth="1"/>
     <col min="8" max="16" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -546,697 +553,1097 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>23200</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>25100</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>27600</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>29700</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>32500</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <v>42400</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="2">
         <v>50100</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="2">
         <v>58700</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="2">
         <v>67800</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="2">
         <v>7700</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="2">
         <v>85500</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="2">
         <v>95000</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="2">
         <v>122300</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="2">
         <v>150000</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>23200</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>25100</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>27600</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>29700</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>32500</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <v>42400</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <v>50100</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="2">
         <v>58700</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="2">
         <v>67800</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="2">
         <v>77000</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="2">
         <v>85500</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="2">
         <v>95000</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="2">
         <v>122300</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="2">
         <v>150000</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>23200</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>25100</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>27600</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>29700</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>32500</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <v>42400</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <v>50100</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="2">
         <v>58700</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="2">
         <v>67800</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="2">
         <v>77000</v>
       </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>23200</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>25100</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>27600</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>29700</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <v>32500</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <v>42400</v>
       </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>23200</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>25100</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>27600</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>29700</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>32500</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <v>42400</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <v>50100</v>
       </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F8">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2">
         <v>22200</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <v>24800</v>
       </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F9">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2">
         <v>82700</v>
       </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F10">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2">
         <v>94300</v>
       </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H11">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2">
         <v>52400</v>
       </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F12">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2">
         <v>45800</v>
       </c>
-      <c r="I12">
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2">
         <v>63700</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="2">
         <v>72200</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="2">
         <v>80400</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="2">
         <v>88300</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="2">
         <v>97800</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="2">
         <v>107000</v>
       </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F13">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2">
         <v>45800</v>
       </c>
-      <c r="I13">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2">
         <v>63700</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="2">
         <v>72200</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="2">
         <v>80400</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="2">
         <v>88300</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="2">
         <v>97800</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="2">
         <v>107000</v>
       </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F14">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2">
         <v>45800</v>
       </c>
-      <c r="I14">
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2">
         <v>63700</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="2">
         <v>72200</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="2">
         <v>80400</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="2">
         <v>88300</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="2">
         <v>97800</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="2">
         <v>107000</v>
       </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F15">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2">
         <v>69500</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="2">
         <v>75700</v>
       </c>
-      <c r="I15">
+      <c r="H15" s="2"/>
+      <c r="I15" s="2">
         <v>112600</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="2">
         <v>120000</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="2">
         <v>127000</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="2">
         <v>133000</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="2">
         <v>140000</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="2">
         <v>148000</v>
       </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F16">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2">
         <v>69500</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="2">
         <v>75700</v>
       </c>
-      <c r="I16">
+      <c r="H16" s="2"/>
+      <c r="I16" s="2">
         <v>112600</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="2">
         <v>120000</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="2">
         <v>127000</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="2">
         <v>133000</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="2">
         <v>140000</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="2">
         <v>148000</v>
       </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F17">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2">
         <v>59200</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="2">
         <v>63700</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="2">
         <v>79000</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="2">
         <v>106000</v>
       </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F18">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2">
         <v>55200</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="2">
         <v>59700</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="2">
         <v>76600</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="2">
         <v>103000</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="2">
         <v>113300</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="2">
         <v>124100</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="2">
         <v>131200</v>
       </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2">
+        <v>56200</v>
+      </c>
+      <c r="G19" s="2">
+        <v>63700</v>
+      </c>
+      <c r="H19" s="2">
+        <v>79000</v>
+      </c>
+      <c r="I19" s="2">
+        <v>106000</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>18</v>
       </c>
-      <c r="F19">
-        <v>56200</v>
-      </c>
-      <c r="G19">
-        <v>63700</v>
-      </c>
-      <c r="H19">
-        <v>79000</v>
-      </c>
-      <c r="I19">
-        <v>106000</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2">
+        <v>69500</v>
+      </c>
+      <c r="G20" s="2">
+        <v>75700</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2">
+        <v>112600</v>
+      </c>
+      <c r="J20" s="2">
+        <v>12000</v>
+      </c>
+      <c r="K20" s="2">
+        <v>127000</v>
+      </c>
+      <c r="L20" s="2">
+        <v>133000</v>
+      </c>
+      <c r="M20" s="2">
+        <v>140000</v>
+      </c>
+      <c r="N20" s="2">
+        <v>148000</v>
+      </c>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>19</v>
       </c>
-      <c r="F20">
-        <v>69500</v>
-      </c>
-      <c r="G20">
-        <v>75700</v>
-      </c>
-      <c r="I20">
-        <v>112600</v>
-      </c>
-      <c r="J20">
-        <v>12000</v>
-      </c>
-      <c r="K20">
-        <v>127000</v>
-      </c>
-      <c r="L20">
-        <v>133000</v>
-      </c>
-      <c r="M20">
-        <v>140000</v>
-      </c>
-      <c r="N20">
-        <v>148000</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2">
+        <v>49000</v>
+      </c>
+      <c r="F21" s="2">
+        <v>54500</v>
+      </c>
+      <c r="G21" s="2">
+        <v>59700</v>
+      </c>
+      <c r="H21" s="2">
+        <v>72500</v>
+      </c>
+      <c r="I21" s="2">
+        <v>99000</v>
+      </c>
+      <c r="J21" s="2">
+        <v>107900</v>
+      </c>
+      <c r="K21" s="2">
+        <v>116900</v>
+      </c>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="E21">
-        <v>49000</v>
-      </c>
-      <c r="F21">
-        <v>54500</v>
-      </c>
-      <c r="G21">
-        <v>59700</v>
-      </c>
-      <c r="H21">
-        <v>72500</v>
-      </c>
-      <c r="I21">
-        <v>99000</v>
-      </c>
-      <c r="J21">
-        <v>107900</v>
-      </c>
-      <c r="K21">
-        <v>116900</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2">
+        <v>45800</v>
+      </c>
+      <c r="F22" s="2">
+        <v>51100</v>
+      </c>
+      <c r="G22" s="2">
+        <v>55900</v>
+      </c>
+      <c r="H22" s="2">
+        <v>70100</v>
+      </c>
+      <c r="I22" s="2">
+        <v>97100</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>21</v>
       </c>
-      <c r="E22">
+      <c r="B23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2">
         <v>45800</v>
       </c>
-      <c r="F22">
+      <c r="F23" s="2">
         <v>51100</v>
       </c>
-      <c r="G22">
+      <c r="G23" s="2">
         <v>55900</v>
       </c>
-      <c r="H22">
+      <c r="H23" s="2">
         <v>70100</v>
       </c>
-      <c r="I22">
+      <c r="I23" s="2">
         <v>97100</v>
       </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>22</v>
       </c>
-      <c r="E23">
-        <v>45800</v>
-      </c>
-      <c r="F23">
-        <v>51100</v>
-      </c>
-      <c r="G23">
-        <v>55900</v>
-      </c>
-      <c r="H23">
-        <v>70100</v>
-      </c>
-      <c r="I23">
-        <v>97100</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2">
+        <v>88300</v>
+      </c>
+      <c r="G24" s="2">
+        <v>97900</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2">
+        <v>123600</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2">
+        <v>145100</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2">
+        <v>155600</v>
+      </c>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>23</v>
       </c>
-      <c r="F24">
+      <c r="B25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2">
         <v>88300</v>
       </c>
-      <c r="G24">
+      <c r="G25" s="2">
         <v>97900</v>
       </c>
-      <c r="I24">
+      <c r="H25" s="2"/>
+      <c r="I25" s="2">
         <v>123600</v>
       </c>
-      <c r="L24">
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2">
         <v>145100</v>
       </c>
-      <c r="N24">
+      <c r="M25" s="2"/>
+      <c r="N25" s="2">
         <v>155600</v>
       </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>24</v>
       </c>
-      <c r="F25">
-        <v>88300</v>
-      </c>
-      <c r="G25">
-        <v>97900</v>
-      </c>
-      <c r="I25">
-        <v>123600</v>
-      </c>
-      <c r="L25">
-        <v>145100</v>
-      </c>
-      <c r="N25">
+      <c r="B26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2500</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2">
+        <v>122200</v>
+      </c>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2">
+        <v>148100</v>
+      </c>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2">
+        <v>122200</v>
+      </c>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2">
+        <v>148100</v>
+      </c>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2">
+        <v>122200</v>
+      </c>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2">
+        <v>138700</v>
+      </c>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2">
         <v>155600</v>
       </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2">
+        <v>39300</v>
+      </c>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2">
+        <v>72300</v>
+      </c>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2">
+        <v>88400</v>
+      </c>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2">
+        <v>98900</v>
+      </c>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2">
+        <v>108500</v>
+      </c>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2">
+        <v>136600</v>
+      </c>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2">
+        <v>44400</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D28">
-        <v>44400</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2">
         <v>60600</v>
       </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30">
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2">
         <v>60600</v>
       </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>35</v>
-      </c>
-      <c r="K32">
-        <v>122200</v>
-      </c>
-      <c r="N32">
-        <v>148100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>37</v>
-      </c>
-      <c r="K33">
-        <v>122200</v>
-      </c>
-      <c r="N33">
-        <v>148100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>36</v>
-      </c>
-      <c r="K34">
-        <v>122200</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>38</v>
-      </c>
-      <c r="K35">
-        <v>138700</v>
-      </c>
-      <c r="N35">
-        <v>155600</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G36">
-        <v>39300</v>
-      </c>
-      <c r="I36">
-        <v>72300</v>
-      </c>
-      <c r="K36">
-        <v>88400</v>
-      </c>
-      <c r="N36">
-        <v>98900</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>40</v>
       </c>
-      <c r="K37">
-        <v>108500</v>
-      </c>
-      <c r="N37">
-        <v>136600</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <v>14400</v>
+      </c>
+      <c r="F37">
+        <v>14400</v>
+      </c>
+      <c r="G37">
+        <v>16100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="E39">
-        <v>14400</v>
-      </c>
-      <c r="F39">
-        <v>14400</v>
-      </c>
-      <c r="G39">
-        <v>16100</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B46" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
